--- a/算法.xlsx
+++ b/算法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="算法" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>算法</t>
   </si>
@@ -46,6 +46,37 @@
   </si>
   <si>
     <t>图</t>
+  </si>
+  <si>
+    <t>大体结构</t>
+  </si>
+  <si>
+    <t>适用题型</t>
+  </si>
+  <si>
+    <t>相关题目</t>
+  </si>
+  <si>
+    <t>1.二分查找</t>
+  </si>
+  <si>
+    <t>框架 
+mid = 0
+while(left &lt;= right){
+  mid = left + Math.floor(right-left/2)
+}</t>
+  </si>
+  <si>
+    <t>2.快慢指针</t>
+  </si>
+  <si>
+    <t>3.双指针</t>
+  </si>
+  <si>
+    <t>4.滑动窗口</t>
+  </si>
+  <si>
+    <t>5.前缀和</t>
   </si>
 </sst>
 </file>
@@ -58,10 +89,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -220,6 +259,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -262,12 +307,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,12 +444,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,55 +585,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,79 +642,94 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1192,8 +1258,8 @@
   <sheetPr/>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1240,17 +1306,60 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="66.25" customWidth="1"/>
+    <col min="2" max="2" width="58.25" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="56.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="25.5" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="112" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="75" customHeight="1" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
